--- a/table/question/question-yingshi.xlsx
+++ b/table/question/question-yingshi.xlsx
@@ -10,14 +10,14 @@
     <sheet name="question-yingshi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'question-yingshi'!$I$1:$J$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'question-yingshi'!$I$1:$J$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="515">
   <si>
     <t>ID</t>
   </si>
@@ -1439,6 +1439,129 @@
   </si>
   <si>
     <t>《甄嬛传》</t>
+  </si>
+  <si>
+    <t>电影《楚门的世界》的男主演是：</t>
+  </si>
+  <si>
+    <t>本·斯蒂勒</t>
+  </si>
+  <si>
+    <t>马龙·白兰度</t>
+  </si>
+  <si>
+    <t>金·凯瑞</t>
+  </si>
+  <si>
+    <t>罗伯特·德尼罗</t>
+  </si>
+  <si>
+    <t>电影《寄生虫》的导演是：</t>
+  </si>
+  <si>
+    <t>奥斯卡金像奖创办于：</t>
+  </si>
+  <si>
+    <t>1929年</t>
+  </si>
+  <si>
+    <t>1987年</t>
+  </si>
+  <si>
+    <t>1898年</t>
+  </si>
+  <si>
+    <t>电影《波西米亚狂想曲》讲述了哪一只乐队的故事？</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>后街男孩</t>
+  </si>
+  <si>
+    <t>皇后乐队</t>
+  </si>
+  <si>
+    <t>林肯公园</t>
+  </si>
+  <si>
+    <t>《大鱼海棠》是出自哪一国家的动画电影？</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>电影《沉默的羔羊》中恐怖的食人魔叫做：</t>
+  </si>
+  <si>
+    <t>汉尼拔</t>
+  </si>
+  <si>
+    <t>竖锯</t>
+  </si>
+  <si>
+    <t>小丑</t>
+  </si>
+  <si>
+    <t>麦克尔</t>
+  </si>
+  <si>
+    <t>动画电影《千与千寻》的导演是：</t>
+  </si>
+  <si>
+    <t>岩井俊二</t>
+  </si>
+  <si>
+    <t>宫崎骏</t>
+  </si>
+  <si>
+    <t>久石让</t>
+  </si>
+  <si>
+    <t>新海诚</t>
+  </si>
+  <si>
+    <t>经典电影《功夫》的导演是：</t>
+  </si>
+  <si>
+    <t>吴宇森</t>
+  </si>
+  <si>
+    <t>周星驰</t>
+  </si>
+  <si>
+    <t>《釜山行》是哪一国家知名的丧尸电影？</t>
+  </si>
+  <si>
+    <t>电影《霸王别姬》中“程蝶衣”一角的扮演者是：</t>
+  </si>
+  <si>
+    <t>葛优</t>
+  </si>
+  <si>
+    <t>张国荣</t>
+  </si>
+  <si>
+    <t>张丰毅</t>
+  </si>
+  <si>
+    <t>《泰坦尼克号》的电影主题曲是：</t>
+  </si>
+  <si>
+    <t>难忘今宵</t>
+  </si>
+  <si>
+    <t>时光飞驰</t>
+  </si>
+  <si>
+    <t>群星闪耀</t>
+  </si>
+  <si>
+    <t>我心永恒</t>
   </si>
 </sst>
 </file>
@@ -2570,10 +2693,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98:J98"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -5763,8 +5886,360 @@
         <v>10</v>
       </c>
     </row>
+    <row r="100" customHeight="1" spans="1:10">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="1">
+        <v>50</v>
+      </c>
+      <c r="J100" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:10">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="1">
+        <v>50</v>
+      </c>
+      <c r="J101" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:10">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="1">
+        <v>10</v>
+      </c>
+      <c r="J102" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:10">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" s="1">
+        <v>40</v>
+      </c>
+      <c r="J103" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:10">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="1">
+        <v>80</v>
+      </c>
+      <c r="J104" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:10">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="1">
+        <v>70</v>
+      </c>
+      <c r="J105" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:10">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="1">
+        <v>70</v>
+      </c>
+      <c r="J106" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:10">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="1">
+        <v>70</v>
+      </c>
+      <c r="J107" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:10">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="1">
+        <v>80</v>
+      </c>
+      <c r="J108" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:10">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="1">
+        <v>70</v>
+      </c>
+      <c r="J109" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:10">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" s="1">
+        <v>70</v>
+      </c>
+      <c r="J110" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="I1:J95">
+  <autoFilter ref="I1:J99">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">
